--- a/Processed Results/Nexus 5X/Gravity/Gravity - Raw.xlsx
+++ b/Processed Results/Nexus 5X/Gravity/Gravity - Raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Gravity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Gravity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46989D4-A0C8-483C-981A-446F41A15C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC3C1F-B45A-4771-AD6A-BDCDA7126212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="9990" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="970" windowWidth="9990" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A31"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -369,152 +369,152 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>101.631671999999</v>
+        <v>116.067275999999</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>102.904056</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>102.745008</v>
+        <v>119.983176</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>102.745008</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>101.154528</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>102.108816</v>
+        <v>121.079628</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>102.904056</v>
+        <v>119.043359999999</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>103.54024800000001</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>102.904056</v>
+        <v>120.296448</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>102.26786399999899</v>
+        <v>121.236263999999</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>102.745008</v>
+        <v>119.983176</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>102.26786399999899</v>
+        <v>116.067275999999</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>102.426912</v>
+        <v>121.3929</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>104.81263199999999</v>
+        <v>118.260179999999</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>102.26786399999899</v>
+        <v>120.453084</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>99.723095999999899</v>
+        <v>119.199996</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>102.108816</v>
+        <v>119.82653999999999</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>102.426912</v>
+        <v>119.199996</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>102.58596</v>
+        <v>119.356632</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>101.94976800000001</v>
+        <v>120.766356</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>102.58596</v>
+        <v>120.296448</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>102.426912</v>
+        <v>119.669904</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>102.108816</v>
+        <v>121.236263999999</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>102.26786399999899</v>
+        <v>119.043359999999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>102.426912</v>
+        <v>120.60972</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>102.108816</v>
+        <v>120.453084</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>103.063104</v>
+        <v>121.549536</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>102.26786399999899</v>
+        <v>119.356632</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>102.904056</v>
+        <v>114.814188</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>102.26786399999899</v>
+        <v>122.01944399999999</v>
       </c>
     </row>
   </sheetData>
